--- a/report/reliability/comb/Faculdade de Letras - FALE-Graduação (licenciatura).xlsx
+++ b/report/reliability/comb/Faculdade de Letras - FALE-Graduação (licenciatura).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7386646182946915</v>
+        <v>0.6994851924893042</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7596634177087144</v>
+        <v>0.731506335576999</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8976245523870422</v>
+        <v>0.9018470613542179</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2084866800932261</v>
+        <v>0.17326373952774846</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.160831407629862</v>
+        <v>2.7244826694477977</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03544494776656541</v>
+        <v>0.03906702330674463</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4286666666666665</v>
+        <v>1.841846153846154</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7105597520900846</v>
+        <v>0.5925754285157512</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.18105841358822278</v>
+        <v>0.13151721817614567</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7090414115627048</v>
+        <v>0.6970818232295188</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7251900766172233</v>
+        <v>0.7148067990487206</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8718038918103072</v>
+        <v>0.8926602269850893</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.19348209088813767</v>
+        <v>0.17277862348491468</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.638878784617693</v>
+        <v>2.5063949514379678</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03956233032870622</v>
+        <v>0.0400482591638631</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.05912363764380756</v>
+        <v>0.08455450824782323</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.17387411527275515</v>
+        <v>0.12812879229156424</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.709923204684053</v>
+        <v>0.6703954375892589</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7288052282156102</v>
+        <v>0.6953282736392179</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8736563492012452</v>
+        <v>0.8831173429620947</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.19634038074193025</v>
+        <v>0.1597945564605188</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.6873867199587385</v>
+        <v>2.2822212022911286</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03948661398292934</v>
+        <v>0.042741663029775515</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05872868544065552</v>
+        <v>0.08507387887764145</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.17733776839287277</v>
+        <v>0.12204221337123096</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7139686463671993</v>
+        <v>0.6749970909238672</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7298781006562284</v>
+        <v>0.7022333224168175</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8778411111382893</v>
+        <v>0.888413719305106</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.19719938267643897</v>
+        <v>0.16424845107948247</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.7020323136679356</v>
+        <v>2.358334143083037</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03900740901481033</v>
+        <v>0.04216836285723297</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.05984526245035628</v>
+        <v>0.08480883644747574</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1847790587835728</v>
+        <v>0.13151721817614567</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7068137195336434</v>
+        <v>0.6822934354290657</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7262571360822474</v>
+        <v>0.7011851898287822</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8766873087488678</v>
+        <v>0.8828646140178732</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.19432000078055542</v>
+        <v>0.16356222440952495</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.6530632641457803</v>
+        <v>2.3465543405529687</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.039971317924366964</v>
+        <v>0.04180671770617184</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.05883739825757809</v>
+        <v>0.07491511046440925</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1648881573053263</v>
+        <v>0.1264189208456849</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7161533920034443</v>
+        <v>0.6577500057982985</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.745091642098963</v>
+        <v>0.6971980166462299</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8589164334819066</v>
+        <v>0.8791817441675209</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.20993916472001617</v>
+        <v>0.1609851538862564</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.9229784705146042</v>
+        <v>2.302488276081331</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03865101623398453</v>
+        <v>0.0446385640719424</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05671187001612827</v>
+        <v>0.07524046193222707</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.19551610019818777</v>
+        <v>0.12595253260441114</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7154209874481345</v>
+        <v>0.6581931576659932</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7428939759651335</v>
+        <v>0.697269059337584</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8580582841760266</v>
+        <v>0.8819053131979364</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2080317681486661</v>
+        <v>0.16103061482430026</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.8894460126083565</v>
+        <v>2.3032632799669086</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03875658418380984</v>
+        <v>0.04462874675635669</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05671142870220621</v>
+        <v>0.07524790777296596</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1847790587835728</v>
+        <v>0.1212129903156199</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7544259502310942</v>
+        <v>0.7037998431799384</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7786718375063213</v>
+        <v>0.7545551961031244</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.887541436562425</v>
+        <v>0.9071489620523034</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.24232916015310033</v>
+        <v>0.20393974316259073</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.518177843854645</v>
+        <v>3.074235771640753</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.03302297573025776</v>
+        <v>0.03917713475127781</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.05257670948919238</v>
+        <v>0.07798509661219268</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.20448047768352412</v>
+        <v>0.14850676517444783</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7668575495810283</v>
+        <v>0.7106540897836076</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7787261389289204</v>
+        <v>0.7388846555524432</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8875459293077188</v>
+        <v>0.8908175653294421</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.24238702032364606</v>
+        <v>0.19081440257093488</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.5192866213816845</v>
+        <v>2.829725143559472</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.03103960865126084</v>
+        <v>0.036524908482310145</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05275610676193673</v>
+        <v>0.08053366722232803</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.20448047768352412</v>
+        <v>0.14850676517444783</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7256411543287328</v>
+        <v>0.7231682641829401</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7490127821303216</v>
+        <v>0.7390033783919414</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8982006361904593</v>
+        <v>0.8990738418261713</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.21340172632965504</v>
+        <v>0.19090944795357456</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.9842666430895113</v>
+        <v>2.8314672191493377</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.037711946229408544</v>
+        <v>0.03441719532902653</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06639848413790847</v>
+        <v>0.08317706131112253</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.17387411527275515</v>
+        <v>0.14850676517444783</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7090051401200572</v>
+        <v>0.6856023211831456</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7345815125163323</v>
+        <v>0.7270027799784954</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8907488845340519</v>
+        <v>0.9030972278615794</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.20102472580815003</v>
+        <v>0.18161587153357123</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.767635063708717</v>
+        <v>2.663040964011384</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.0399300980478099</v>
+        <v>0.04131792695179995</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06344644548355906</v>
+        <v>0.09180023698563315</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.1648881573053263</v>
+        <v>0.13151721817614567</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7121221534263826</v>
+        <v>0.6664943068497197</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7359694459175782</v>
+        <v>0.710800877152993</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8674838820873809</v>
+        <v>0.8980971280902597</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2021724379077653</v>
+        <v>0.16999964541893928</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.7874404478499573</v>
+        <v>2.457825148830148</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03924082464588926</v>
+        <v>0.04376282789233523</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06033844542984118</v>
+        <v>0.09021748291344335</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.17733776839287277</v>
+        <v>0.12204221337123096</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7102798218455673</v>
+        <v>0.6640158030114046</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7348090730834763</v>
+        <v>0.7065018973386162</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8678628212500104</v>
+        <v>0.8742844048976046</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2012123026406515</v>
+        <v>0.1670817983816592</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.770868074663723</v>
+        <v>2.407177051341029</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03951795911991305</v>
+        <v>0.04373456784093709</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06071505641219471</v>
+        <v>0.08824049363944268</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1648881573053263</v>
+        <v>0.1264189208456849</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6609179927616152</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7043838474542878</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8739559806139712</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.16566808069446254</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.382765087051076</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.04422549709677493</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.08856191834694938</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1212129903156199</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>125.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6038198074345423</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.655149538690934</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.639886248137547</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5144643068325444</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.408</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0708453097526995</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5846406890538938</v>
+        <v>0.36554874273070276</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6301426788039275</v>
+        <v>0.49174204595094106</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6122697377266381</v>
+        <v>0.46332688574858133</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.471440576265634</v>
+        <v>0.33916407960830397</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.856</v>
+        <v>0.944</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2870571584169284</v>
+        <v>0.23084696788271913</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5699002371987185</v>
+        <v>0.5404762463508949</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6226273664606309</v>
+        <v>0.6271881557850901</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5936745684378927</v>
+        <v>0.6166222628749112</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4851157143775788</v>
+        <v>0.43065132632318703</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.504</v>
+        <v>3.408</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9723931237399688</v>
+        <v>1.0708453097526995</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6058829217317948</v>
+        <v>0.5140496522798662</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6478187582769652</v>
+        <v>0.5807263885578874</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6221603107868309</v>
+        <v>0.5607505465992471</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4896455611902002</v>
+        <v>0.37499416281595743</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.768</v>
+        <v>3.856</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.356798889226569</v>
+        <v>1.2870571584169284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5552172836574176</v>
+        <v>0.5875904723512583</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.511168430925447</v>
+        <v>0.5878849108248745</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5296614098494492</v>
+        <v>0.6101622904939012</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4114062880214276</v>
+        <v>0.5493180720626067</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.832</v>
+        <v>0.24</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5331603455481395</v>
+        <v>0.42880178141180275</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5695605597256788</v>
+        <v>0.6205596487779192</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5278560312908955</v>
+        <v>0.6147681806423468</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5473265447576843</v>
+        <v>0.6416396013818398</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.41751971608223915</v>
+        <v>0.47348867608177336</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.872</v>
+        <v>0.832</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6361638848429934</v>
+        <v>1.5331603455481395</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.25410721704763695</v>
+        <v>0.6251803398621576</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.22779196493785944</v>
+        <v>0.6142939450121797</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.17420228632732032</v>
+        <v>0.6377565672342639</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.09438858036338284</v>
+        <v>0.4675267953078151</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.608</v>
+        <v>0.872</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3848023033468853</v>
+        <v>1.6361638848429934</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.2682531822484243</v>
+        <v>0.09659450493616509</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.22728575274389504</v>
+        <v>0.1666780709662644</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.1734624698577051</v>
+        <v>0.09694841076404918</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.06948080746628013</v>
+        <v>0.05566584724510697</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.64</v>
+        <v>0.888</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.715207125647211</v>
+        <v>0.31663553893416485</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5022260809547633</v>
+        <v>0.30182485278061477</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4808748646842638</v>
+        <v>0.3035979066423864</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3919481560945126</v>
+        <v>0.2697889583097697</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.34482448289337636</v>
+        <v>0.12699601249001194</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.464</v>
+        <v>2.608</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.573695055921654</v>
+        <v>1.3848023033468853</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5923593383108247</v>
+        <v>0.32682705889007374</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5891598650497809</v>
+        <v>0.30260642012956634</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5219075048193224</v>
+        <v>0.25343421636840335</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4679164825720202</v>
+        <v>0.10956314120708335</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.256</v>
+        <v>2.64</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.413666018868398</v>
+        <v>1.715207125647211</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5696447495439759</v>
+        <v>0.49043826340091007</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5791186595969401</v>
+        <v>0.3995543772042408</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.570743983268166</v>
+        <v>0.31369518263057217</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.448474298085159</v>
+        <v>0.31196881527540443</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.024</v>
+        <v>1.464</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.340823050075178</v>
+        <v>1.573695055921654</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>125.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5820939635923994</v>
+        <v>0.5707970278243124</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5875187762140245</v>
+        <v>0.5207315580694144</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5787906390661521</v>
+        <v>0.44850048705815315</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.46579341065652236</v>
+        <v>0.4266004935262086</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.256</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.413666018868398</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>125.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5810196855073609</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5511697119658874</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5402925478629229</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.44723183443942655</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.024</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.340823050075178</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>125.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5979245374952119</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.565917214483761</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5554233540046816</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.47048875254152445</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.912</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3137977455183245</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.056</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.016</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.384</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.48</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.064</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.056</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.024</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.272</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.248</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.024</v>
+        <v>0.056</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.032</v>
+        <v>0.944</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.024</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.336</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.504</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.024</v>
+        <v>0.056</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.056</v>
+        <v>0.016</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.048</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.336</v>
+        <v>0.384</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.072</v>
+        <v>0.48</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.464</v>
+        <v>0.064</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.76</v>
+        <v>0.056</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.008</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.008</v>
+        <v>0.024</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.096</v>
+        <v>0.272</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.12</v>
+        <v>0.248</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.008</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.76</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.008</v>
+        <v>0.24</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.016</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.088</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.072</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.056</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.112</v>
+        <v>0.76</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.176</v>
+        <v>0.008</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.008</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.416</v>
+        <v>0.096</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.272</v>
+        <v>0.12</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.112</v>
+        <v>0.76</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.216</v>
+        <v>0.008</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.16</v>
+        <v>0.016</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.168</v>
+        <v>0.088</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.12</v>
+        <v>0.072</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.224</v>
+        <v>0.056</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.448</v>
+        <v>0.112</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.152</v>
+        <v>0.888</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.032</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.224</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.144</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2</v>
+        <v>0.112</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.128</v>
+        <v>0.176</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.056</v>
+        <v>0.008</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.448</v>
+        <v>0.416</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.168</v>
+        <v>0.272</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.016</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2</v>
+        <v>0.112</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.136</v>
+        <v>0.216</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.248</v>
+        <v>0.16</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.272</v>
+        <v>0.168</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.144</v>
+        <v>0.12</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.224</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.216</v>
+        <v>0.448</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.128</v>
+        <v>0.152</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.312</v>
+        <v>0.032</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.216</v>
+        <v>0.224</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.128</v>
+        <v>0.144</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.128</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.056</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.448</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.168</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.2</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.136</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.248</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.272</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.144</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.216</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.128</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.312</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.216</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.128</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8522726010816092</v>
+        <v>0.8836124450594173</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8589751649332117</v>
+        <v>0.9875263172771627</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8730820463334362</v>
+        <v>0.9824834383961842</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6036051955075047</v>
+        <v>0.9634897854952381</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.090949615551103</v>
+        <v>79.16878593273456</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.021703260181196476</v>
+        <v>0.0030794008187395023</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.634</v>
+        <v>0.648</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9840174401811409</v>
+        <v>1.1870749569445975</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5473312440027001</v>
+        <v>0.968680066381618</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8008243989603638</v>
+        <v>0.9830349219606409</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8123234847987915</v>
+        <v>0.9840908971685038</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7706175084988846</v>
+        <v>0.968680066381618</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5906290725669993</v>
+        <v>0.968680066381618</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.32831717877912</v>
+        <v>61.857095751511324</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.030111500688257995</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.021117154443771664</v>
-      </c>
+        <v>0.0029356852864962095</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.55797945767172</v>
+        <v>0.968680066381618</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8080136208853576</v>
+        <v>0.6367018169520706</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8184803809371938</v>
+        <v>0.9755226794348972</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7712273867490488</v>
+        <v>0.9522150074506265</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6004818922621254</v>
+        <v>0.9522150074506266</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.509046378364188</v>
+        <v>39.85414485381615</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.028689487027354212</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.016768076012712897</v>
-      </c>
+        <v>0.011009998468045587</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5366830303336803</v>
+        <v>0.9522150074506265</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8229665671791528</v>
+        <v>0.6693313461147619</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8325502679947567</v>
+        <v>0.984552135141844</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7974408668670236</v>
+        <v>0.9695742826534697</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6236801275606899</v>
+        <v>0.9695742826534697</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.971941477748604</v>
+        <v>63.73386511224115</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.02813905260350045</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.023192305079509236</v>
-      </c>
+        <v>0.008691769079981386</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.55797945767172</v>
+        <v>0.9695742826534696</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8165822447347373</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8179522096703316</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7880564113883879</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5996296896402038</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.493063102766097</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.02769309034373497</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.030756986239226253</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5366830303336803</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>125.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9753089331374902</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9860034166453253</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9752861713894007</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9682155104778399</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.24</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.42880178141180275</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>125.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8431335309617215</v>
+        <v>0.9923088246080218</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8498840306638578</v>
+        <v>0.9915598078663522</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.805724153409686</v>
+        <v>0.9874922829198644</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7280581945494344</v>
+        <v>0.9765742923202493</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.408</v>
+        <v>0.832</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0708453097526995</v>
+        <v>1.5331603455481395</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>125.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8511098956001435</v>
+        <v>0.9911245062145483</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8410687606812388</v>
+        <v>0.9857016494021325</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7961431234752179</v>
+        <v>0.9744186550224077</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7065214291992657</v>
+        <v>0.9701358966554327</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.856</v>
+        <v>0.872</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2870571584169284</v>
+        <v>1.6361638848429934</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>125.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8032726795022637</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8203134121003319</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7511268544019633</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.682529347905484</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.504</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9723931237399688</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>125.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8525067856522912</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8418312222328137</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7801018609527546</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6967972064262548</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.768</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.356798889226569</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.76</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.24</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.76</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.008</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.008</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.096</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.12</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.008</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.76</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.008</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.016</v>
+      </c>
+      <c r="E27" t="n" s="227">
+        <v>0.088</v>
+      </c>
+      <c r="F27" t="n" s="228">
+        <v>0.072</v>
+      </c>
+      <c r="G27" t="n" s="229">
         <v>0.056</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.016</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.384</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.48</v>
-      </c>
-      <c r="G27" t="n" s="229">
-        <v>0.064</v>
-      </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.056</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.024</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.272</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.248</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.024</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.032</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.024</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.336</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.504</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.024</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.056</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.048</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.336</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.072</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.464</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8579832314993101</v>
+        <v>0.7405160831423379</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8691318025171784</v>
+        <v>0.8550993650115366</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7685526964607924</v>
+        <v>0.8174377480492427</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7685526964607923</v>
+        <v>0.6629698581602681</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>6.641275873240819</v>
+        <v>5.901281005977772</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.02407437500222981</v>
+        <v>0.019180756214573054</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.624</v>
+        <v>2.0453333333333332</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4586449743821568</v>
+        <v>1.0432785378444636</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7685526964607924</v>
+        <v>0.6715316746622553</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.8579832314993101</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8691318025171784</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7685526964607924</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7685526964607924</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5906732472371548</v>
-      </c>
       <c r="E11" t="n" s="291">
-        <v>0.7685526964607924</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7685526964607924</v>
-      </c>
+        <v>0.7685526964607923</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>6.641275873240819</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.02407437500222981</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7685526964607924</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5906732472371548</v>
+        <v>0.32769443557825295</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7685526964607924</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5906732472371548</v>
-      </c>
+        <v>0.7086986990758384</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.5488252033577563</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.5488252033577563</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>2.4328717270656584</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03660471126023761</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7685526964607924</v>
+        <v>0.5488252033577564</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.4518140870167797</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8034926108091167</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.6715316746622555</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.6715316746622553</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>4.0888671622857915</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.03301461581813703</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.6715316746622553</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>125.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9265549233105013</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9403596908791848</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8243864214365577</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7685526964607926</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.608</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.3848023033468853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>125.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9527680548609502</v>
+        <v>0.6990536623873422</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9403596908791848</v>
+        <v>0.8405487944642619</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8243864214365577</v>
+        <v>0.7008890375573407</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7685526964607926</v>
+        <v>0.6414472137640325</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.888</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.31663553893416485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>125.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9315697431080926</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9237298728155533</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8876662698155443</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8025724841961362</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.608</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.3848023033468853</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>125.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9435889288323815</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8772775310550994</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7997354562114112</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7668113073734051</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.64</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.715207125647211</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.112</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.888</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.112</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.176</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.008</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.416</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.272</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.016</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.112</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.216</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.16</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.168</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.12</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.224</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9257124874614007</v>
+        <v>0.7707688253508136</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9258155583933358</v>
+        <v>0.9092463193405039</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8618776464576119</v>
+        <v>0.8720962671126791</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8618776464576119</v>
+        <v>0.7695646672276796</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>12.47991544240682</v>
+        <v>10.0188368420225</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.013278253657957057</v>
+        <v>0.015111606643881238</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.968</v>
+        <v>2.736</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2806626309038414</v>
+        <v>0.8079976578269045</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8618776464576119</v>
+        <v>0.7782605695437058</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8618776464576119</v>
+        <v>0.8792302930251754</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8618776464576119</v>
+        <v>0.8875243605783056</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.7428330774633122</v>
+        <v>0.7977921755119719</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8618776464576119</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8618776464576119</v>
-      </c>
+        <v>0.7977921755119719</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>7.890814092203499</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.020654067470708404</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8618776464576119</v>
+        <v>0.7977921755119719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.7428330774633122</v>
+        <v>0.4058947368421051</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8618776464576119</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.7428330774633122</v>
-      </c>
+        <v>0.8456929601843481</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.7326412566273608</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.7326412566273608</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>5.480585728264142</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.02599562500901398</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8618776464576119</v>
+        <v>0.7326412566273609</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.48558866634098674</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.8753054337176291</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.7782605695437057</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.7782605695437059</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>7.019595639279906</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.025134076648148852</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.7782605695437058</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>125.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9655766863277536</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9648517104865421</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8957429106392425</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8618776464576118</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.024</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.340823050075178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>125.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9641193162989437</v>
+        <v>0.8280530696240693</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9648517104865421</v>
+        <v>0.9097596977919407</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8957429106392425</v>
+        <v>0.8345338158017147</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8618776464576118</v>
+        <v>0.7942224677378162</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.912</v>
+        <v>0.944</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3137977455183245</v>
+        <v>0.23084696788271913</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>125.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9394864414999342</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.9333654316591687</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8898719940203406</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.8237285373998527</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.408</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.0708453097526995</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>125.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9531781674440241</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9168364650943793</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8530145367424044</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.8129778270525948</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.856</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2870571584169284</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.2</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.136</v>
-      </c>
-      <c r="D23" t="n" s="456">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.056</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.944</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.056</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.016</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.384</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.48</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.064</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.056</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.024</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.272</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.248</v>
       </c>
-      <c r="E23" t="n" s="457">
-        <v>0.272</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.144</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.216</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.128</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.312</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.216</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.128</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.4</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9830349219606409</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9840908971685038</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.968680066381618</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.968680066381618</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>61.857095751511324</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0029356852864962095</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.852</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.572218486006934</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.968680066381618</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6838330170777991</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6864181174431396</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.5225544951237</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5225544951237</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.1889597442501305</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05611384859633113</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.86</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.3038404810405297</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5225544951237</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.968680066381618</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.968680066381618</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9383410710050958</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.968680066381618</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.968680066381618</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.968680066381618</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.5225544951237</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.5225544951237</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.27306320037398524</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.5225544951237</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.5225544951237</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.5225544951237</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9383410710050958</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.968680066381618</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9383410710050958</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.968680066381618</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.27306320037398524</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.5225544951237</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.27306320037398524</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.5225544951237</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>125.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9916178043575379</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9921391198772525</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9764786575718678</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.968680066381618</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.832</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5331603455481395</v>
+      <c r="C17" t="n" s="545">
+        <v>0.88676974764564</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8725120329037589</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6307208952847865</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5225544951236999</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.464</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.573695055921654</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>125.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9926437635489244</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9921391198772525</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9764786575718678</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.968680066381618</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.872</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6361638848429934</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8574697122878694</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8725120329037589</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6307208952847864</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5225544951237001</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.256</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.413666018868398</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.76</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.008</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.008</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.096</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.12</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.008</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.448</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.152</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.032</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.224</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.144</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.76</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.008</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.016</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.088</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.072</v>
-      </c>
-      <c r="G24" t="n" s="573">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.128</v>
+      </c>
+      <c r="D24" t="n" s="571">
         <v>0.056</v>
       </c>
-      <c r="H24" t="n" s="574">
+      <c r="E24" t="n" s="572">
+        <v>0.448</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.168</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6838330170777991</v>
+        <v>0.9257124874614007</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6864181174431396</v>
+        <v>0.9258155583933358</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.1889597442501305</v>
+        <v>12.47991544240682</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05611384859633113</v>
+        <v>0.013278253657957057</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.86</v>
+        <v>1.968</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.3038404810405297</v>
+        <v>1.2806626309038414</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.27306320037398524</v>
+        <v>0.7428330774633122</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.27306320037398524</v>
+        <v>0.7428330774633122</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.27306320037398524</v>
+        <v>0.7428330774633122</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.5225544951237</v>
+        <v>0.8618776464576119</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>125.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.88676974764564</v>
+        <v>0.9655766863277536</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8725120329037589</v>
+        <v>0.9648517104865421</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6307208952847865</v>
+        <v>0.8957429106392425</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.5225544951236999</v>
+        <v>0.8618776464576118</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.464</v>
+        <v>2.024</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.573695055921654</v>
+        <v>1.340823050075178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>125.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8574697122878694</v>
+        <v>0.9641193162989437</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8725120329037589</v>
+        <v>0.9648517104865421</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6307208952847864</v>
+        <v>0.8957429106392425</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.5225544951237001</v>
+        <v>0.8618776464576118</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.256</v>
+        <v>1.912</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.413666018868398</v>
+        <v>1.3137977455183245</v>
       </c>
     </row>
     <row r="19">
@@ -7204,45 +7375,45 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.448</v>
+        <v>0.2</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.152</v>
+        <v>0.136</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.032</v>
+        <v>0.248</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.224</v>
+        <v>0.272</v>
       </c>
       <c r="F23" t="n" s="687">
         <v>0.144</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2</v>
+        <v>0.216</v>
       </c>
       <c r="C24" t="n" s="684">
         <v>0.128</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.056</v>
+        <v>0.312</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.448</v>
+        <v>0.216</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.168</v>
+        <v>0.128</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.804072929841217</v>
+        <v>0.778000087211643</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8135104786450037</v>
+        <v>0.8126429758752574</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9121084832804103</v>
+        <v>0.9229422427756089</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.303729371922865</v>
+        <v>0.3025236309222368</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.3622315759845165</v>
+        <v>4.337403306182948</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.027044976231440837</v>
+        <v>0.028831991708614522</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.3896</v>
+        <v>1.7808</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8207809027521172</v>
+        <v>0.7320646895441819</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.23567827808581526</v>
+        <v>0.19730708803578795</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.784792674591581</v>
+        <v>0.7646499927138738</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7905528041760308</v>
+        <v>0.7882376189979285</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8888294677960169</v>
+        <v>0.9048382105013303</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2954699628398609</v>
+        <v>0.2925793020038511</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.7744730888660567</v>
+        <v>3.722274066186561</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.029757537625109198</v>
+        <v>0.031367061504245605</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04152922574971152</v>
+        <v>0.05677230717442462</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.22577224163299642</v>
+        <v>0.21924776019643788</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7851157912883576</v>
+        <v>0.7440632236814861</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.791797327080477</v>
+        <v>0.7865264275067287</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8897931659544291</v>
+        <v>0.9020683948672266</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.297040431932443</v>
+        <v>0.29046818253527185</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.803012305161578</v>
+        <v>3.684420597456016</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02961547924637485</v>
+        <v>0.03287428666753413</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04159393376316046</v>
+        <v>0.05651617284367929</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.22232025687096163</v>
+        <v>0.21304069829876682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7866639618589166</v>
+        <v>0.7440715670151533</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7924065826129031</v>
+        <v>0.7854484019524807</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8938841575955448</v>
+        <v>0.9040845031405635</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.29781353944034966</v>
+        <v>0.2891491331762778</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.817108425626579</v>
+        <v>3.660883484906592</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.029653001726576162</v>
+        <v>0.032901710885830895</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04339700704188057</v>
+        <v>0.05766353501285228</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.23222629332378047</v>
+        <v>0.21924776019643788</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7811621357306076</v>
+        <v>0.7800876003290571</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7881325659531231</v>
+        <v>0.8040801198696602</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8927365123382287</v>
+        <v>0.9157997455775968</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2924490787388825</v>
+        <v>0.31319348288079246</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.719932558293713</v>
+        <v>4.1041272551551655</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.030215442462152735</v>
+        <v>0.029724011686390096</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.043396309600983764</v>
+        <v>0.06684218889361102</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.24248059204140548</v>
+        <v>0.23222629332378047</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7876154451454367</v>
+        <v>0.7607441372068604</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7986861130241735</v>
+        <v>0.7919955809790892</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8828513971646691</v>
+        <v>0.9080761730738671</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.30595009318563743</v>
+        <v>0.2972916933458757</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.967367204628454</v>
+        <v>3.807590169031308</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.02934117202434721</v>
+        <v>0.03071780014692809</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04220465469423433</v>
+        <v>0.06930275682590797</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.23222629332378047</v>
+        <v>0.19641159411698786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7855913481594845</v>
+        <v>0.7639468420780386</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7974266358536538</v>
+        <v>0.7942770305319692</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8834577233789254</v>
+        <v>0.9118898359134293</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3042931458773144</v>
+        <v>0.3002048178758067</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.9364831561841696</v>
+        <v>3.8609059191875974</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02966577108373406</v>
+        <v>0.030083442811220083</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04322794290196402</v>
+        <v>0.07000015403165731</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.23976276754877193</v>
+        <v>0.19641159411698786</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7895157055057982</v>
+        <v>0.7744495034214661</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8047777336090991</v>
+        <v>0.8140732215845499</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8716977089642445</v>
+        <v>0.9283127777916995</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3141481004270221</v>
+        <v>0.3272769017086767</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.122366513242204</v>
+        <v>4.378461394977317</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.02892200076666575</v>
+        <v>0.02946904022668594</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.036760009526154325</v>
+        <v>0.07807430690333284</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.25082873633879</v>
+        <v>0.21304069829876682</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7888657291507936</v>
+        <v>0.7476546421089224</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8022235979820056</v>
+        <v>0.7964758146693176</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8706497655368372</v>
+        <v>0.9207910464442114</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.31067311340238646</v>
+        <v>0.3030506771775452</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.05621494676102</v>
+        <v>3.9134209694794633</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.02897099303018734</v>
+        <v>0.03305329125047801</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03782171026649681</v>
+        <v>0.08314870150638794</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.25082873633879</v>
+        <v>0.1787787824661873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8009847061424111</v>
+        <v>0.7541284342133505</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.810086917546551</v>
+        <v>0.7997051750646192</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9146808300551947</v>
+        <v>0.8966362912759426</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.32155178789146505</v>
+        <v>0.3073001450389962</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.265566684933974</v>
+        <v>3.992640225840186</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.027934788136221467</v>
+        <v>0.031476054288932374</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.048883291593517585</v>
+        <v>0.07337890927457615</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.24248059204140548</v>
+        <v>0.19641159411698786</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7789430942855436</v>
+        <v>0.7507632376841872</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7924780914503451</v>
+        <v>0.7977535274460839</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9068284151202813</v>
+        <v>0.8966999570460451</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.29790446549328853</v>
+        <v>0.3047219734792742</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.818768326625736</v>
+        <v>3.9444620090143405</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.03092191054051294</v>
+        <v>0.032066963821638414</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05209654586774012</v>
+        <v>0.07470290553159915</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.20504639080328518</v>
+        <v>0.1878679483688448</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6113596242002125</v>
+        <v>0.667335994012802</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6596909633557161</v>
+        <v>0.6688147085407128</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6374019134847172</v>
+        <v>0.6867817267737443</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5193163707733648</v>
+        <v>0.6328735633560165</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.408</v>
+        <v>0.24</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.0708453097526995</v>
+        <v>0.42880178141180275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6100558346981786</v>
+        <v>0.6876044727365569</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6504382294193275</v>
+        <v>0.6812709079564347</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6267643273392772</v>
+        <v>0.7030030117500191</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.496527634004214</v>
+        <v>0.5500074251150631</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.856</v>
+        <v>0.832</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2870571584169284</v>
+        <v>1.5331603455481395</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.5987363989433989</v>
+        <v>0.6981530744647683</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6458833113323228</v>
+        <v>0.689053670656202</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6114301488808604</v>
+        <v>0.7077758563462573</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5142571791522733</v>
+        <v>0.5525659621582891</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.504</v>
+        <v>0.872</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9723931237399688</v>
+        <v>1.6361638848429934</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6430440631087385</v>
+        <v>0.41829852129642187</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6774891084902134</v>
+        <v>0.5471852358288978</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.646217938400328</v>
+        <v>0.5117070316439969</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5292777300990701</v>
+        <v>0.3917696575685071</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.768</v>
+        <v>0.944</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.356798889226569</v>
+        <v>0.23084696788271913</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5945214167730412</v>
+        <v>0.552214938780058</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5979451714988989</v>
+        <v>0.6410102724797436</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5844203554968549</v>
+        <v>0.6207747433793154</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.4725662483468502</v>
+        <v>0.4377734121576125</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.024</v>
+        <v>3.408</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.340823050075178</v>
+        <v>1.0708453097526995</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6079056435915615</v>
+        <v>0.5491076174507631</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6077074092041445</v>
+        <v>0.6238220173346799</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.59366771207719</v>
+        <v>0.5965643013905028</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.49126807146981916</v>
+        <v>0.4078259700705599</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.912</v>
+        <v>3.856</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3137977455183245</v>
+        <v>1.2870571584169284</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6029317976713224</v>
+        <v>0.5405079377971678</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5496449660562053</v>
+        <v>0.4640890984542961</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5654288179340705</v>
+        <v>0.3641840446056365</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.46247796944840514</v>
+        <v>0.3608607645100719</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.832</v>
+        <v>1.464</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.5331603455481395</v>
+        <v>1.573695055921654</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6217353844382071</v>
+        <v>0.6593656456801066</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5701185497282595</v>
+        <v>0.6070306459797474</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5869197802773809</v>
+        <v>0.5269310315216272</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.474670541223661</v>
+        <v>0.5270450268109588</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.872</v>
+        <v>2.256</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.6361638848429934</v>
+        <v>1.413666018868398</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5344665023702972</v>
+        <v>0.6166689212634887</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5060246550419776</v>
+        <v>0.5819575888265407</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.41152529619233286</v>
+        <v>0.5643313892232966</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.37579042787686434</v>
+        <v>0.4823801093971078</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.464</v>
+        <v>2.024</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.573695055921654</v>
+        <v>1.340823050075178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>125.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.6612025690987271</v>
+        <v>0.6346466073946012</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6453476022376944</v>
+        <v>0.5971695271151171</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5718176934381978</v>
+        <v>0.5795582361192742</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.5460347484651846</v>
+        <v>0.5075105894677071</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.256</v>
+        <v>1.912</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.413666018868398</v>
+        <v>1.3137977455183245</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.056</v>
+        <v>0.76</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.016</v>
+        <v>0.24</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.384</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.48</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.064</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.056</v>
+        <v>0.76</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.008</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.272</v>
+        <v>0.096</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.248</v>
+        <v>0.12</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4</v>
+        <v>0.008</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.024</v>
+        <v>0.76</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.032</v>
+        <v>0.008</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.336</v>
+        <v>0.088</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.504</v>
+        <v>0.072</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08</v>
+        <v>0.056</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.024</v>
+        <v>0.056</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.056</v>
+        <v>0.944</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.048</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.336</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.072</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.464</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.2</v>
+        <v>0.056</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.136</v>
+        <v>0.016</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.248</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.272</v>
+        <v>0.384</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.144</v>
+        <v>0.48</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.064</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.216</v>
+        <v>0.056</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.128</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.312</v>
+        <v>0.024</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.216</v>
+        <v>0.272</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.128</v>
+        <v>0.248</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.76</v>
+        <v>0.448</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.008</v>
+        <v>0.152</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.008</v>
+        <v>0.032</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.096</v>
+        <v>0.224</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.12</v>
+        <v>0.144</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.008</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.76</v>
+        <v>0.2</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.008</v>
+        <v>0.128</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.016</v>
+        <v>0.056</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.088</v>
+        <v>0.448</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.072</v>
+        <v>0.168</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.056</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,19 +8428,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.448</v>
+        <v>0.2</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.152</v>
+        <v>0.136</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.032</v>
+        <v>0.248</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.224</v>
+        <v>0.272</v>
       </c>
       <c r="F47" t="n" s="801">
         <v>0.144</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2</v>
+        <v>0.216</v>
       </c>
       <c r="C48" t="n" s="798">
         <v>0.128</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.056</v>
+        <v>0.312</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.448</v>
+        <v>0.216</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.168</v>
+        <v>0.128</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
